--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=2.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=2.xlsx
@@ -534,58 +534,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="C2" t="n">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="D2" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="E2" t="n">
-        <v>422</v>
+        <v>637</v>
       </c>
       <c r="F2" t="n">
-        <v>483</v>
+        <v>619</v>
       </c>
       <c r="G2" t="n">
-        <v>536</v>
+        <v>631</v>
       </c>
       <c r="H2" t="n">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="I2" t="n">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="J2" t="n">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="K2" t="n">
-        <v>548</v>
+        <v>390</v>
       </c>
       <c r="L2" t="n">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="M2" t="n">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="N2" t="n">
-        <v>371</v>
+        <v>554</v>
       </c>
       <c r="O2" t="n">
-        <v>310</v>
+        <v>439</v>
       </c>
       <c r="P2" t="n">
-        <v>320</v>
+        <v>503</v>
       </c>
       <c r="Q2" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="R2" t="n">
-        <v>6882</v>
+        <v>7899</v>
       </c>
       <c r="S2" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3">
@@ -595,58 +595,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624</v>
+        <v>478</v>
       </c>
       <c r="C3" t="n">
-        <v>674</v>
+        <v>473</v>
       </c>
       <c r="D3" t="n">
-        <v>679</v>
+        <v>565</v>
       </c>
       <c r="E3" t="n">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F3" t="n">
-        <v>591</v>
+        <v>521</v>
       </c>
       <c r="G3" t="n">
-        <v>654</v>
+        <v>548</v>
       </c>
       <c r="H3" t="n">
-        <v>642</v>
+        <v>451</v>
       </c>
       <c r="I3" t="n">
-        <v>509</v>
+        <v>362</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>569</v>
+        <v>410</v>
       </c>
       <c r="L3" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M3" t="n">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="N3" t="n">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="O3" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P3" t="n">
-        <v>338</v>
+        <v>554</v>
       </c>
       <c r="Q3" t="n">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="R3" t="n">
-        <v>7869</v>
+        <v>7140</v>
       </c>
       <c r="S3" t="n">
-        <v>679</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4">
@@ -656,58 +656,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C4" t="n">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="D4" t="n">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="E4" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="F4" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G4" t="n">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="H4" t="n">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="I4" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>569</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="M4" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N4" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O4" t="n">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="P4" t="n">
-        <v>338</v>
+        <v>478</v>
       </c>
       <c r="Q4" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R4" t="n">
-        <v>7869</v>
+        <v>6769</v>
       </c>
       <c r="S4" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5">
@@ -717,58 +717,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="C5" t="n">
-        <v>674</v>
+        <v>545</v>
       </c>
       <c r="D5" t="n">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="E5" t="n">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="F5" t="n">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="G5" t="n">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="H5" t="n">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="I5" t="n">
+        <v>404</v>
+      </c>
+      <c r="J5" t="n">
         <v>509</v>
       </c>
-      <c r="J5" t="n">
-        <v>422</v>
-      </c>
       <c r="K5" t="n">
-        <v>569</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="M5" t="n">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="N5" t="n">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="O5" t="n">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="P5" t="n">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="Q5" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="R5" t="n">
-        <v>7869</v>
+        <v>7755</v>
       </c>
       <c r="S5" t="n">
-        <v>679</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6">
@@ -778,58 +778,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>591</v>
+        <v>494</v>
       </c>
       <c r="C6" t="n">
-        <v>629</v>
+        <v>491</v>
       </c>
       <c r="D6" t="n">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="E6" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="F6" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G6" t="n">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="H6" t="n">
-        <v>621</v>
+        <v>450</v>
       </c>
       <c r="I6" t="n">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>589</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>504</v>
+        <v>429</v>
       </c>
       <c r="M6" t="n">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="N6" t="n">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="O6" t="n">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="P6" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q6" t="n">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="R6" t="n">
-        <v>7794</v>
+        <v>6769</v>
       </c>
       <c r="S6" t="n">
-        <v>639</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
@@ -839,58 +839,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C7" t="n">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="D7" t="n">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="E7" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="F7" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G7" t="n">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="H7" t="n">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="I7" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>569</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="M7" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N7" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O7" t="n">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="P7" t="n">
-        <v>338</v>
+        <v>478</v>
       </c>
       <c r="Q7" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R7" t="n">
-        <v>7869</v>
+        <v>6769</v>
       </c>
       <c r="S7" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8">
@@ -900,58 +900,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="C8" t="n">
-        <v>674</v>
+        <v>545</v>
       </c>
       <c r="D8" t="n">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="E8" t="n">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="F8" t="n">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="G8" t="n">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="H8" t="n">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="I8" t="n">
+        <v>404</v>
+      </c>
+      <c r="J8" t="n">
         <v>509</v>
       </c>
-      <c r="J8" t="n">
-        <v>422</v>
-      </c>
       <c r="K8" t="n">
-        <v>569</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="M8" t="n">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="N8" t="n">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="O8" t="n">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="P8" t="n">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="Q8" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="R8" t="n">
-        <v>7869</v>
+        <v>7755</v>
       </c>
       <c r="S8" t="n">
-        <v>679</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9">
@@ -961,58 +961,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>591</v>
+        <v>494</v>
       </c>
       <c r="C9" t="n">
-        <v>629</v>
+        <v>491</v>
       </c>
       <c r="D9" t="n">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="E9" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="F9" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G9" t="n">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="H9" t="n">
-        <v>621</v>
+        <v>450</v>
       </c>
       <c r="I9" t="n">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>589</v>
+        <v>420</v>
       </c>
       <c r="L9" t="n">
-        <v>504</v>
+        <v>429</v>
       </c>
       <c r="M9" t="n">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="N9" t="n">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="O9" t="n">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="P9" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q9" t="n">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="R9" t="n">
-        <v>7794</v>
+        <v>6769</v>
       </c>
       <c r="S9" t="n">
-        <v>639</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10">
@@ -1022,58 +1022,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="C10" t="n">
-        <v>674</v>
+        <v>542</v>
       </c>
       <c r="D10" t="n">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="E10" t="n">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="F10" t="n">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="G10" t="n">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="H10" t="n">
-        <v>642</v>
+        <v>499</v>
       </c>
       <c r="I10" t="n">
-        <v>509</v>
+        <v>418</v>
       </c>
       <c r="J10" t="n">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="K10" t="n">
-        <v>569</v>
+        <v>395</v>
       </c>
       <c r="L10" t="n">
-        <v>518</v>
+        <v>382</v>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="N10" t="n">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="O10" t="n">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="P10" t="n">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="Q10" t="n">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="R10" t="n">
-        <v>7869</v>
+        <v>7213</v>
       </c>
       <c r="S10" t="n">
-        <v>679</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11">
@@ -1083,58 +1083,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="C11" t="n">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="D11" t="n">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E11" t="n">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="F11" t="n">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="G11" t="n">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="H11" t="n">
-        <v>419</v>
+        <v>341</v>
       </c>
       <c r="I11" t="n">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="J11" t="n">
-        <v>420</v>
+        <v>544</v>
       </c>
       <c r="K11" t="n">
-        <v>494</v>
+        <v>302</v>
       </c>
       <c r="L11" t="n">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M11" t="n">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="N11" t="n">
-        <v>393</v>
+        <v>520</v>
       </c>
       <c r="O11" t="n">
         <v>335</v>
       </c>
       <c r="P11" t="n">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="Q11" t="n">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="R11" t="n">
-        <v>6135</v>
+        <v>5830</v>
       </c>
       <c r="S11" t="n">
-        <v>494</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12">
@@ -1144,58 +1144,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C12" t="n">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="D12" t="n">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="E12" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="F12" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G12" t="n">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="H12" t="n">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="I12" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="K12" t="n">
-        <v>569</v>
+        <v>420</v>
       </c>
       <c r="L12" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N12" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O12" t="n">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="P12" t="n">
-        <v>338</v>
+        <v>478</v>
       </c>
       <c r="Q12" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R12" t="n">
-        <v>7869</v>
+        <v>6769</v>
       </c>
       <c r="S12" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13">
@@ -1205,58 +1205,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C13" t="n">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="D13" t="n">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="E13" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="F13" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G13" t="n">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="H13" t="n">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="I13" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J13" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>569</v>
+        <v>420</v>
       </c>
       <c r="L13" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="M13" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N13" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O13" t="n">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="P13" t="n">
-        <v>338</v>
+        <v>478</v>
       </c>
       <c r="Q13" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R13" t="n">
-        <v>7869</v>
+        <v>6769</v>
       </c>
       <c r="S13" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14">
@@ -1266,58 +1266,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>514</v>
+        <v>414</v>
       </c>
       <c r="C14" t="n">
-        <v>573</v>
+        <v>409</v>
       </c>
       <c r="D14" t="n">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="E14" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F14" t="n">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="G14" t="n">
-        <v>573</v>
+        <v>476</v>
       </c>
       <c r="H14" t="n">
-        <v>543</v>
+        <v>382</v>
       </c>
       <c r="I14" t="n">
-        <v>493</v>
+        <v>335</v>
       </c>
       <c r="J14" t="n">
-        <v>488</v>
+        <v>254</v>
       </c>
       <c r="K14" t="n">
-        <v>541</v>
+        <v>330</v>
       </c>
       <c r="L14" t="n">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="M14" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="O14" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P14" t="n">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="Q14" t="n">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="R14" t="n">
-        <v>7074</v>
+        <v>5797</v>
       </c>
       <c r="S14" t="n">
-        <v>573</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15">
@@ -1327,58 +1327,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624</v>
+        <v>414</v>
       </c>
       <c r="C15" t="n">
-        <v>674</v>
+        <v>409</v>
       </c>
       <c r="D15" t="n">
-        <v>679</v>
+        <v>501</v>
       </c>
       <c r="E15" t="n">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="F15" t="n">
-        <v>591</v>
+        <v>483</v>
       </c>
       <c r="G15" t="n">
-        <v>654</v>
+        <v>476</v>
       </c>
       <c r="H15" t="n">
-        <v>642</v>
+        <v>382</v>
       </c>
       <c r="I15" t="n">
-        <v>509</v>
+        <v>335</v>
       </c>
       <c r="J15" t="n">
-        <v>422</v>
+        <v>254</v>
       </c>
       <c r="K15" t="n">
-        <v>569</v>
+        <v>330</v>
       </c>
       <c r="L15" t="n">
-        <v>518</v>
+        <v>380</v>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="O15" t="n">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="P15" t="n">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="Q15" t="n">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="R15" t="n">
-        <v>7869</v>
+        <v>5797</v>
       </c>
       <c r="S15" t="n">
-        <v>679</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
@@ -1388,58 +1388,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C16" t="n">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="D16" t="n">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="E16" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="F16" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G16" t="n">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="H16" t="n">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="I16" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J16" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="K16" t="n">
-        <v>569</v>
+        <v>420</v>
       </c>
       <c r="L16" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="M16" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N16" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O16" t="n">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="P16" t="n">
-        <v>338</v>
+        <v>478</v>
       </c>
       <c r="Q16" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R16" t="n">
-        <v>7869</v>
+        <v>6769</v>
       </c>
       <c r="S16" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
@@ -1449,58 +1449,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>624</v>
+        <v>494</v>
       </c>
       <c r="C17" t="n">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="D17" t="n">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="E17" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="F17" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G17" t="n">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="H17" t="n">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="I17" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J17" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="K17" t="n">
-        <v>569</v>
+        <v>420</v>
       </c>
       <c r="L17" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="M17" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N17" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O17" t="n">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="P17" t="n">
-        <v>338</v>
+        <v>478</v>
       </c>
       <c r="Q17" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R17" t="n">
-        <v>7869</v>
+        <v>6769</v>
       </c>
       <c r="S17" t="n">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1621,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236</v>
+        <v>422</v>
       </c>
       <c r="C2" t="n">
-        <v>226</v>
+        <v>429</v>
       </c>
       <c r="D2" t="n">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="E2" t="n">
-        <v>186</v>
+        <v>430</v>
       </c>
       <c r="F2" t="n">
-        <v>142</v>
+        <v>437</v>
       </c>
       <c r="G2" t="n">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="H2" t="n">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="I2" t="n">
+        <v>155</v>
+      </c>
+      <c r="J2" t="n">
+        <v>72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>179</v>
+      </c>
+      <c r="L2" t="n">
+        <v>165</v>
+      </c>
+      <c r="M2" t="n">
+        <v>214</v>
+      </c>
+      <c r="N2" t="n">
+        <v>176</v>
+      </c>
+      <c r="O2" t="n">
         <v>160</v>
       </c>
-      <c r="J2" t="n">
-        <v>148</v>
-      </c>
-      <c r="K2" t="n">
-        <v>277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>69</v>
-      </c>
-      <c r="N2" t="n">
-        <v>54</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-36</v>
-      </c>
       <c r="P2" t="n">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="Q2" t="n">
-        <v>-36</v>
+        <v>72</v>
       </c>
       <c r="R2" t="n">
-        <v>2187</v>
+        <v>4272</v>
       </c>
       <c r="S2" t="n">
-        <v>288</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3">
@@ -1682,58 +1682,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="C3" t="n">
-        <v>496</v>
+        <v>257</v>
       </c>
       <c r="D3" t="n">
-        <v>546</v>
+        <v>263</v>
       </c>
       <c r="E3" t="n">
-        <v>436</v>
+        <v>242</v>
       </c>
       <c r="F3" t="n">
-        <v>358</v>
+        <v>241</v>
       </c>
       <c r="G3" t="n">
-        <v>413</v>
+        <v>292</v>
       </c>
       <c r="H3" t="n">
-        <v>415</v>
+        <v>211</v>
       </c>
       <c r="I3" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="L3" t="n">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="M3" t="n">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="N3" t="n">
-        <v>48</v>
+        <v>-8</v>
       </c>
       <c r="O3" t="n">
-        <v>52</v>
+        <v>-4</v>
       </c>
       <c r="P3" t="n">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="Q3" t="n">
-        <v>48</v>
+        <v>-8</v>
       </c>
       <c r="R3" t="n">
-        <v>4161</v>
+        <v>2754</v>
       </c>
       <c r="S3" t="n">
-        <v>546</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -1743,58 +1743,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="C4" t="n">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="D4" t="n">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="E4" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="F4" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G4" t="n">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="H4" t="n">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I4" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>-290</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M4" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>48</v>
+        <v>-200</v>
       </c>
       <c r="O4" t="n">
-        <v>52</v>
+        <v>-48</v>
       </c>
       <c r="P4" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q4" t="n">
-        <v>48</v>
+        <v>-290</v>
       </c>
       <c r="R4" t="n">
-        <v>4161</v>
+        <v>2012</v>
       </c>
       <c r="S4" t="n">
-        <v>546</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
@@ -1804,58 +1804,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="C5" t="n">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="D5" t="n">
-        <v>546</v>
+        <v>427</v>
       </c>
       <c r="E5" t="n">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="F5" t="n">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="G5" t="n">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="H5" t="n">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="I5" t="n">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="L5" t="n">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="M5" t="n">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="N5" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="O5" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="P5" t="n">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Q5" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="R5" t="n">
-        <v>4161</v>
+        <v>3984</v>
       </c>
       <c r="S5" t="n">
-        <v>546</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
@@ -1865,58 +1865,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="C6" t="n">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="D6" t="n">
-        <v>466</v>
+        <v>299</v>
       </c>
       <c r="E6" t="n">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="F6" t="n">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="H6" t="n">
-        <v>373</v>
+        <v>209</v>
       </c>
       <c r="I6" t="n">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>168</v>
+        <v>-290</v>
       </c>
       <c r="K6" t="n">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="M6" t="n">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>140</v>
+        <v>-200</v>
       </c>
       <c r="O6" t="n">
-        <v>86</v>
+        <v>-48</v>
       </c>
       <c r="P6" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q6" t="n">
-        <v>86</v>
+        <v>-290</v>
       </c>
       <c r="R6" t="n">
-        <v>4011</v>
+        <v>2012</v>
       </c>
       <c r="S6" t="n">
-        <v>466</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7">
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="C7" t="n">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="D7" t="n">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="E7" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="F7" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G7" t="n">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="H7" t="n">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I7" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>62</v>
+        <v>-290</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M7" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>48</v>
+        <v>-200</v>
       </c>
       <c r="O7" t="n">
-        <v>52</v>
+        <v>-48</v>
       </c>
       <c r="P7" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q7" t="n">
-        <v>48</v>
+        <v>-290</v>
       </c>
       <c r="R7" t="n">
-        <v>4161</v>
+        <v>2012</v>
       </c>
       <c r="S7" t="n">
-        <v>546</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
@@ -1987,58 +1987,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="C8" t="n">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="D8" t="n">
-        <v>546</v>
+        <v>427</v>
       </c>
       <c r="E8" t="n">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="F8" t="n">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="G8" t="n">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="H8" t="n">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="I8" t="n">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="J8" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="L8" t="n">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="M8" t="n">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="N8" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="O8" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="P8" t="n">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Q8" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="R8" t="n">
-        <v>4161</v>
+        <v>3984</v>
       </c>
       <c r="S8" t="n">
-        <v>546</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
@@ -2048,58 +2048,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="C9" t="n">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="D9" t="n">
-        <v>466</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="F9" t="n">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G9" t="n">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="H9" t="n">
-        <v>373</v>
+        <v>209</v>
       </c>
       <c r="I9" t="n">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>168</v>
+        <v>-290</v>
       </c>
       <c r="K9" t="n">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="L9" t="n">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="M9" t="n">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>140</v>
+        <v>-200</v>
       </c>
       <c r="O9" t="n">
-        <v>86</v>
+        <v>-48</v>
       </c>
       <c r="P9" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="n">
-        <v>86</v>
+        <v>-290</v>
       </c>
       <c r="R9" t="n">
-        <v>4011</v>
+        <v>2012</v>
       </c>
       <c r="S9" t="n">
-        <v>466</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10">
@@ -2109,58 +2109,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="C10" t="n">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="D10" t="n">
-        <v>546</v>
+        <v>421</v>
       </c>
       <c r="E10" t="n">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="F10" t="n">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="G10" t="n">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="H10" t="n">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="I10" t="n">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="J10" t="n">
-        <v>62</v>
+        <v>-222</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="L10" t="n">
-        <v>205</v>
+        <v>-35</v>
       </c>
       <c r="M10" t="n">
-        <v>59</v>
+        <v>-42</v>
       </c>
       <c r="N10" t="n">
-        <v>48</v>
+        <v>-96</v>
       </c>
       <c r="O10" t="n">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="P10" t="n">
-        <v>82</v>
+        <v>-35</v>
       </c>
       <c r="Q10" t="n">
-        <v>48</v>
+        <v>-222</v>
       </c>
       <c r="R10" t="n">
-        <v>4161</v>
+        <v>2900</v>
       </c>
       <c r="S10" t="n">
-        <v>546</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11">
@@ -2170,58 +2170,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>-46</v>
       </c>
       <c r="C11" t="n">
-        <v>-8</v>
+        <v>-17</v>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>-31</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F11" t="n">
-        <v>-6</v>
+        <v>-43</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>-22</v>
       </c>
       <c r="H11" t="n">
-        <v>-31</v>
+        <v>-9</v>
       </c>
       <c r="I11" t="n">
-        <v>144</v>
+        <v>-13</v>
       </c>
       <c r="J11" t="n">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="K11" t="n">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>-33</v>
+        <v>21</v>
       </c>
       <c r="M11" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O11" t="n">
-        <v>14</v>
+        <v>-48</v>
       </c>
       <c r="P11" t="n">
-        <v>58</v>
+        <v>-9</v>
       </c>
       <c r="Q11" t="n">
-        <v>-33</v>
+        <v>-48</v>
       </c>
       <c r="R11" t="n">
-        <v>693</v>
+        <v>134</v>
       </c>
       <c r="S11" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -2231,58 +2231,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="C12" t="n">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="D12" t="n">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="E12" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="F12" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G12" t="n">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="H12" t="n">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I12" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>62</v>
+        <v>-290</v>
       </c>
       <c r="K12" t="n">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="L12" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M12" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>48</v>
+        <v>-200</v>
       </c>
       <c r="O12" t="n">
-        <v>52</v>
+        <v>-48</v>
       </c>
       <c r="P12" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q12" t="n">
-        <v>48</v>
+        <v>-290</v>
       </c>
       <c r="R12" t="n">
-        <v>4161</v>
+        <v>2012</v>
       </c>
       <c r="S12" t="n">
-        <v>546</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
@@ -2292,58 +2292,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="C13" t="n">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="D13" t="n">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="E13" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="F13" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G13" t="n">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="H13" t="n">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I13" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>62</v>
+        <v>-290</v>
       </c>
       <c r="K13" t="n">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="L13" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M13" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>48</v>
+        <v>-200</v>
       </c>
       <c r="O13" t="n">
-        <v>52</v>
+        <v>-48</v>
       </c>
       <c r="P13" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q13" t="n">
-        <v>48</v>
+        <v>-290</v>
       </c>
       <c r="R13" t="n">
-        <v>4161</v>
+        <v>2012</v>
       </c>
       <c r="S13" t="n">
-        <v>546</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
@@ -2353,58 +2353,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="C14" t="n">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="D14" t="n">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="E14" t="n">
-        <v>278</v>
+        <v>110</v>
       </c>
       <c r="F14" t="n">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="G14" t="n">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="H14" t="n">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="I14" t="n">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>194</v>
+        <v>-410</v>
       </c>
       <c r="K14" t="n">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="L14" t="n">
-        <v>149</v>
+        <v>-39</v>
       </c>
       <c r="M14" t="n">
-        <v>-41</v>
+        <v>-194</v>
       </c>
       <c r="N14" t="n">
-        <v>-44</v>
+        <v>-240</v>
       </c>
       <c r="O14" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P14" t="n">
-        <v>22</v>
+        <v>-21</v>
       </c>
       <c r="Q14" t="n">
-        <v>-44</v>
+        <v>-410</v>
       </c>
       <c r="R14" t="n">
-        <v>2571</v>
+        <v>68</v>
       </c>
       <c r="S14" t="n">
-        <v>294</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -2414,58 +2414,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460</v>
+        <v>112</v>
       </c>
       <c r="C15" t="n">
-        <v>496</v>
+        <v>129</v>
       </c>
       <c r="D15" t="n">
-        <v>546</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="F15" t="n">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="G15" t="n">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="H15" t="n">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="I15" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>62</v>
+        <v>-410</v>
       </c>
       <c r="K15" t="n">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="L15" t="n">
-        <v>205</v>
+        <v>-39</v>
       </c>
       <c r="M15" t="n">
-        <v>59</v>
+        <v>-194</v>
       </c>
       <c r="N15" t="n">
-        <v>48</v>
+        <v>-240</v>
       </c>
       <c r="O15" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="P15" t="n">
-        <v>82</v>
+        <v>-21</v>
       </c>
       <c r="Q15" t="n">
-        <v>48</v>
+        <v>-410</v>
       </c>
       <c r="R15" t="n">
-        <v>4161</v>
+        <v>68</v>
       </c>
       <c r="S15" t="n">
-        <v>546</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="C16" t="n">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="D16" t="n">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="E16" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="F16" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G16" t="n">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="H16" t="n">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I16" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>62</v>
+        <v>-290</v>
       </c>
       <c r="K16" t="n">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="L16" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M16" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>48</v>
+        <v>-200</v>
       </c>
       <c r="O16" t="n">
-        <v>52</v>
+        <v>-48</v>
       </c>
       <c r="P16" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q16" t="n">
-        <v>48</v>
+        <v>-290</v>
       </c>
       <c r="R16" t="n">
-        <v>4161</v>
+        <v>2012</v>
       </c>
       <c r="S16" t="n">
-        <v>546</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17">
@@ -2536,58 +2536,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="C17" t="n">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="D17" t="n">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="E17" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="F17" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G17" t="n">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="H17" t="n">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I17" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>62</v>
+        <v>-290</v>
       </c>
       <c r="K17" t="n">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="L17" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M17" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>48</v>
+        <v>-200</v>
       </c>
       <c r="O17" t="n">
-        <v>52</v>
+        <v>-48</v>
       </c>
       <c r="P17" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Q17" t="n">
-        <v>48</v>
+        <v>-290</v>
       </c>
       <c r="R17" t="n">
-        <v>4161</v>
+        <v>2012</v>
       </c>
       <c r="S17" t="n">
-        <v>546</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=2.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=2.xlsx
@@ -534,58 +534,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="C2" t="n">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="D2" t="n">
-        <v>656</v>
+        <v>519</v>
       </c>
       <c r="E2" t="n">
-        <v>637</v>
+        <v>537</v>
       </c>
       <c r="F2" t="n">
-        <v>619</v>
+        <v>482</v>
       </c>
       <c r="G2" t="n">
-        <v>631</v>
+        <v>522</v>
       </c>
       <c r="H2" t="n">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="I2" t="n">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="J2" t="n">
-        <v>495</v>
+        <v>372</v>
       </c>
       <c r="K2" t="n">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="L2" t="n">
-        <v>482</v>
+        <v>357</v>
       </c>
       <c r="M2" t="n">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="N2" t="n">
-        <v>554</v>
+        <v>359</v>
       </c>
       <c r="O2" t="n">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="P2" t="n">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="Q2" t="n">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="R2" t="n">
-        <v>7899</v>
+        <v>6696</v>
       </c>
       <c r="S2" t="n">
-        <v>656</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
@@ -595,58 +595,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C3" t="n">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D3" t="n">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="E3" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F3" t="n">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="G3" t="n">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="H3" t="n">
-        <v>451</v>
+        <v>556</v>
       </c>
       <c r="I3" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="K3" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L3" t="n">
-        <v>519</v>
+        <v>357</v>
       </c>
       <c r="M3" t="n">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="N3" t="n">
+        <v>359</v>
+      </c>
+      <c r="O3" t="n">
         <v>462</v>
       </c>
-      <c r="O3" t="n">
-        <v>357</v>
-      </c>
       <c r="P3" t="n">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="Q3" t="n">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="R3" t="n">
-        <v>7140</v>
+        <v>6696</v>
       </c>
       <c r="S3" t="n">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
@@ -659,55 +659,55 @@
         <v>494</v>
       </c>
       <c r="C4" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D4" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E4" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F4" t="n">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G4" t="n">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H4" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="I4" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="L4" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="M4" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N4" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O4" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="P4" t="n">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="Q4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="S4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
@@ -717,58 +717,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550</v>
+        <v>452</v>
       </c>
       <c r="C5" t="n">
-        <v>545</v>
+        <v>461</v>
       </c>
       <c r="D5" t="n">
-        <v>647</v>
+        <v>520</v>
       </c>
       <c r="E5" t="n">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="F5" t="n">
-        <v>608</v>
+        <v>485</v>
       </c>
       <c r="G5" t="n">
-        <v>627</v>
+        <v>531</v>
       </c>
       <c r="H5" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I5" t="n">
-        <v>404</v>
+        <v>571</v>
       </c>
       <c r="J5" t="n">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>547</v>
       </c>
       <c r="L5" t="n">
-        <v>487</v>
+        <v>352</v>
       </c>
       <c r="M5" t="n">
-        <v>394</v>
+        <v>535</v>
       </c>
       <c r="N5" t="n">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="O5" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P5" t="n">
-        <v>537</v>
+        <v>426</v>
       </c>
       <c r="Q5" t="n">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="R5" t="n">
-        <v>7755</v>
+        <v>7496</v>
       </c>
       <c r="S5" t="n">
-        <v>647</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6">
@@ -778,58 +778,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C6" t="n">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="E6" t="n">
+        <v>578</v>
+      </c>
+      <c r="F6" t="n">
+        <v>528</v>
+      </c>
+      <c r="G6" t="n">
         <v>569</v>
       </c>
-      <c r="F6" t="n">
-        <v>553</v>
-      </c>
-      <c r="G6" t="n">
-        <v>584</v>
-      </c>
       <c r="H6" t="n">
-        <v>450</v>
+        <v>565</v>
       </c>
       <c r="I6" t="n">
-        <v>341</v>
+        <v>471</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>498</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="L6" t="n">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="M6" t="n">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="N6" t="n">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="O6" t="n">
-        <v>335</v>
+        <v>484</v>
       </c>
       <c r="P6" t="n">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="Q6" t="n">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="R6" t="n">
-        <v>6769</v>
+        <v>7500</v>
       </c>
       <c r="S6" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
@@ -842,55 +842,55 @@
         <v>494</v>
       </c>
       <c r="C7" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D7" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E7" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F7" t="n">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G7" t="n">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H7" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="I7" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="L7" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="M7" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N7" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O7" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="P7" t="n">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="Q7" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R7" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="S7" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
@@ -900,58 +900,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="C8" t="n">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="D8" t="n">
-        <v>647</v>
+        <v>509</v>
       </c>
       <c r="E8" t="n">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="F8" t="n">
-        <v>608</v>
+        <v>480</v>
       </c>
       <c r="G8" t="n">
-        <v>627</v>
+        <v>536</v>
       </c>
       <c r="H8" t="n">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="I8" t="n">
-        <v>404</v>
+        <v>538</v>
       </c>
       <c r="J8" t="n">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>476</v>
       </c>
       <c r="L8" t="n">
-        <v>487</v>
+        <v>311</v>
       </c>
       <c r="M8" t="n">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="N8" t="n">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="O8" t="n">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P8" t="n">
-        <v>537</v>
+        <v>429</v>
       </c>
       <c r="Q8" t="n">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="R8" t="n">
-        <v>7755</v>
+        <v>7240</v>
       </c>
       <c r="S8" t="n">
-        <v>647</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9">
@@ -961,58 +961,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C9" t="n">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D9" t="n">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="E9" t="n">
+        <v>578</v>
+      </c>
+      <c r="F9" t="n">
+        <v>528</v>
+      </c>
+      <c r="G9" t="n">
         <v>569</v>
       </c>
-      <c r="F9" t="n">
-        <v>553</v>
-      </c>
-      <c r="G9" t="n">
-        <v>584</v>
-      </c>
       <c r="H9" t="n">
-        <v>450</v>
+        <v>565</v>
       </c>
       <c r="I9" t="n">
-        <v>341</v>
+        <v>471</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>498</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="L9" t="n">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="M9" t="n">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="N9" t="n">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="O9" t="n">
-        <v>335</v>
+        <v>484</v>
       </c>
       <c r="P9" t="n">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="Q9" t="n">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="R9" t="n">
-        <v>6769</v>
+        <v>7500</v>
       </c>
       <c r="S9" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -1022,58 +1022,58 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>494</v>
+      </c>
+      <c r="C10" t="n">
+        <v>494</v>
+      </c>
+      <c r="D10" t="n">
         <v>550</v>
       </c>
-      <c r="C10" t="n">
-        <v>542</v>
-      </c>
-      <c r="D10" t="n">
-        <v>644</v>
-      </c>
       <c r="E10" t="n">
-        <v>632</v>
+        <v>552</v>
       </c>
       <c r="F10" t="n">
-        <v>613</v>
+        <v>497</v>
       </c>
       <c r="G10" t="n">
-        <v>623</v>
+        <v>535</v>
       </c>
       <c r="H10" t="n">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="I10" t="n">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="J10" t="n">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K10" t="n">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="L10" t="n">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="M10" t="n">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="N10" t="n">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="O10" t="n">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="P10" t="n">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q10" t="n">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="R10" t="n">
-        <v>7213</v>
+        <v>6837</v>
       </c>
       <c r="S10" t="n">
-        <v>644</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11">
@@ -1083,58 +1083,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="C11" t="n">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="E11" t="n">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="F11" t="n">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="G11" t="n">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="H11" t="n">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="I11" t="n">
-        <v>328</v>
+        <v>499</v>
       </c>
       <c r="J11" t="n">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>619</v>
       </c>
       <c r="L11" t="n">
-        <v>410</v>
+        <v>563</v>
       </c>
       <c r="M11" t="n">
-        <v>362</v>
+        <v>476</v>
       </c>
       <c r="N11" t="n">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="O11" t="n">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="P11" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q11" t="n">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="R11" t="n">
-        <v>5830</v>
+        <v>7073</v>
       </c>
       <c r="S11" t="n">
-        <v>544</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12">
@@ -1147,55 +1147,55 @@
         <v>494</v>
       </c>
       <c r="C12" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D12" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E12" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F12" t="n">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G12" t="n">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H12" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="I12" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="K12" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="L12" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="M12" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N12" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O12" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="P12" t="n">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="Q12" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R12" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="S12" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13">
@@ -1208,55 +1208,55 @@
         <v>494</v>
       </c>
       <c r="C13" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D13" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E13" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F13" t="n">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G13" t="n">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H13" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="I13" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="L13" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="M13" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N13" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O13" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="P13" t="n">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="Q13" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R13" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="S13" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14">
@@ -1266,58 +1266,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="C14" t="n">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="D14" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E14" t="n">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="F14" t="n">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="G14" t="n">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="H14" t="n">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="I14" t="n">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="J14" t="n">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="K14" t="n">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="L14" t="n">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="N14" t="n">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="O14" t="n">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="P14" t="n">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="Q14" t="n">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="R14" t="n">
-        <v>5797</v>
+        <v>6557</v>
       </c>
       <c r="S14" t="n">
-        <v>501</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15">
@@ -1327,58 +1327,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="C15" t="n">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="D15" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E15" t="n">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="F15" t="n">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="G15" t="n">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="H15" t="n">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="I15" t="n">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="J15" t="n">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="K15" t="n">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="L15" t="n">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="N15" t="n">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="O15" t="n">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="P15" t="n">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="Q15" t="n">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="R15" t="n">
-        <v>5797</v>
+        <v>6557</v>
       </c>
       <c r="S15" t="n">
-        <v>501</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
@@ -1391,55 +1391,55 @@
         <v>494</v>
       </c>
       <c r="C16" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D16" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E16" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F16" t="n">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G16" t="n">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H16" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="I16" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="K16" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="L16" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="M16" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N16" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O16" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="P16" t="n">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="Q16" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R16" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="S16" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17">
@@ -1452,55 +1452,55 @@
         <v>494</v>
       </c>
       <c r="C17" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D17" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E17" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F17" t="n">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G17" t="n">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H17" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="I17" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="J17" t="n">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="K17" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="L17" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="M17" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N17" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O17" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="P17" t="n">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="Q17" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R17" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="S17" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1621,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="C2" t="n">
-        <v>429</v>
+        <v>248</v>
       </c>
       <c r="D2" t="n">
-        <v>445</v>
+        <v>275</v>
       </c>
       <c r="E2" t="n">
-        <v>430</v>
+        <v>283</v>
       </c>
       <c r="F2" t="n">
-        <v>437</v>
+        <v>228</v>
       </c>
       <c r="G2" t="n">
-        <v>458</v>
+        <v>242</v>
       </c>
       <c r="H2" t="n">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="I2" t="n">
-        <v>155</v>
+        <v>-23</v>
       </c>
       <c r="J2" t="n">
-        <v>72</v>
+        <v>-38</v>
       </c>
       <c r="K2" t="n">
-        <v>179</v>
+        <v>-127</v>
       </c>
       <c r="L2" t="n">
-        <v>165</v>
+        <v>-64</v>
       </c>
       <c r="M2" t="n">
-        <v>214</v>
+        <v>-49</v>
       </c>
       <c r="N2" t="n">
-        <v>176</v>
+        <v>-21</v>
       </c>
       <c r="O2" t="n">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="P2" t="n">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="Q2" t="n">
-        <v>72</v>
+        <v>-127</v>
       </c>
       <c r="R2" t="n">
-        <v>4272</v>
+        <v>1931</v>
       </c>
       <c r="S2" t="n">
-        <v>458</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
@@ -1682,58 +1682,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="C3" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D3" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E3" t="n">
+        <v>283</v>
+      </c>
+      <c r="F3" t="n">
+        <v>228</v>
+      </c>
+      <c r="G3" t="n">
         <v>242</v>
       </c>
-      <c r="F3" t="n">
-        <v>241</v>
-      </c>
-      <c r="G3" t="n">
-        <v>292</v>
-      </c>
       <c r="H3" t="n">
-        <v>211</v>
+        <v>345</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>-23</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>-38</v>
       </c>
       <c r="K3" t="n">
-        <v>219</v>
+        <v>-127</v>
       </c>
       <c r="L3" t="n">
-        <v>239</v>
+        <v>-64</v>
       </c>
       <c r="M3" t="n">
-        <v>218</v>
+        <v>-49</v>
       </c>
       <c r="N3" t="n">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="O3" t="n">
-        <v>-4</v>
+        <v>195</v>
       </c>
       <c r="P3" t="n">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="Q3" t="n">
-        <v>-8</v>
+        <v>-127</v>
       </c>
       <c r="R3" t="n">
-        <v>2754</v>
+        <v>1931</v>
       </c>
       <c r="S3" t="n">
-        <v>292</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -1743,58 +1743,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C4" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D4" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E4" t="n">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G4" t="n">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H4" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="J4" t="n">
-        <v>-290</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>239</v>
+        <v>-27</v>
       </c>
       <c r="L4" t="n">
-        <v>59</v>
+        <v>-102</v>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>-19</v>
       </c>
       <c r="N4" t="n">
-        <v>-200</v>
+        <v>-11</v>
       </c>
       <c r="O4" t="n">
-        <v>-48</v>
+        <v>207</v>
       </c>
       <c r="P4" t="n">
-        <v>113</v>
+        <v>-6</v>
       </c>
       <c r="Q4" t="n">
-        <v>-290</v>
+        <v>-102</v>
       </c>
       <c r="R4" t="n">
-        <v>2012</v>
+        <v>2213</v>
       </c>
       <c r="S4" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
@@ -1804,58 +1804,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="C5" t="n">
-        <v>401</v>
+        <v>236</v>
       </c>
       <c r="D5" t="n">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="E5" t="n">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="F5" t="n">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="G5" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="H5" t="n">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="I5" t="n">
-        <v>139</v>
+        <v>385</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L5" t="n">
-        <v>175</v>
+        <v>-74</v>
       </c>
       <c r="M5" t="n">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="N5" t="n">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="O5" t="n">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="P5" t="n">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="n">
-        <v>81</v>
+        <v>-74</v>
       </c>
       <c r="R5" t="n">
-        <v>3984</v>
+        <v>3531</v>
       </c>
       <c r="S5" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
@@ -1865,58 +1865,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="C6" t="n">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="D6" t="n">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="E6" t="n">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="F6" t="n">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G6" t="n">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="H6" t="n">
-        <v>209</v>
+        <v>363</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="J6" t="n">
-        <v>-290</v>
+        <v>214</v>
       </c>
       <c r="K6" t="n">
+        <v>53</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>155</v>
+      </c>
+      <c r="N6" t="n">
+        <v>201</v>
+      </c>
+      <c r="O6" t="n">
         <v>239</v>
       </c>
-      <c r="L6" t="n">
-        <v>59</v>
-      </c>
-      <c r="M6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-200</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-48</v>
-      </c>
       <c r="P6" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
-        <v>-290</v>
+        <v>10</v>
       </c>
       <c r="R6" t="n">
-        <v>2012</v>
+        <v>3539</v>
       </c>
       <c r="S6" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7">
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C7" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D7" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E7" t="n">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F7" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G7" t="n">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H7" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="J7" t="n">
-        <v>-290</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>239</v>
+        <v>-27</v>
       </c>
       <c r="L7" t="n">
-        <v>59</v>
+        <v>-102</v>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>-19</v>
       </c>
       <c r="N7" t="n">
-        <v>-200</v>
+        <v>-11</v>
       </c>
       <c r="O7" t="n">
-        <v>-48</v>
+        <v>207</v>
       </c>
       <c r="P7" t="n">
-        <v>113</v>
+        <v>-6</v>
       </c>
       <c r="Q7" t="n">
-        <v>-290</v>
+        <v>-102</v>
       </c>
       <c r="R7" t="n">
-        <v>2012</v>
+        <v>2213</v>
       </c>
       <c r="S7" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
@@ -1987,58 +1987,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="C8" t="n">
-        <v>401</v>
+        <v>258</v>
       </c>
       <c r="D8" t="n">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="E8" t="n">
-        <v>412</v>
+        <v>259</v>
       </c>
       <c r="F8" t="n">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="G8" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="H8" t="n">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="I8" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="K8" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>175</v>
+        <v>-156</v>
       </c>
       <c r="M8" t="n">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="N8" t="n">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="O8" t="n">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="P8" t="n">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="n">
-        <v>81</v>
+        <v>-156</v>
       </c>
       <c r="R8" t="n">
-        <v>3984</v>
+        <v>3019</v>
       </c>
       <c r="S8" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
@@ -2048,58 +2048,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="C9" t="n">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="E9" t="n">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="F9" t="n">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G9" t="n">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="H9" t="n">
-        <v>209</v>
+        <v>363</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="J9" t="n">
-        <v>-290</v>
+        <v>214</v>
       </c>
       <c r="K9" t="n">
+        <v>53</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>155</v>
+      </c>
+      <c r="N9" t="n">
+        <v>201</v>
+      </c>
+      <c r="O9" t="n">
         <v>239</v>
       </c>
-      <c r="L9" t="n">
-        <v>59</v>
-      </c>
-      <c r="M9" t="n">
-        <v>90</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-200</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-48</v>
-      </c>
       <c r="P9" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
-        <v>-290</v>
+        <v>10</v>
       </c>
       <c r="R9" t="n">
-        <v>2012</v>
+        <v>3539</v>
       </c>
       <c r="S9" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
@@ -2109,58 +2109,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C10" t="n">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="D10" t="n">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="E10" t="n">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="F10" t="n">
-        <v>425</v>
+        <v>258</v>
       </c>
       <c r="G10" t="n">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="H10" t="n">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="I10" t="n">
-        <v>167</v>
+        <v>-11</v>
       </c>
       <c r="J10" t="n">
-        <v>-222</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>189</v>
+        <v>-27</v>
       </c>
       <c r="L10" t="n">
-        <v>-35</v>
+        <v>-102</v>
       </c>
       <c r="M10" t="n">
-        <v>-42</v>
+        <v>-19</v>
       </c>
       <c r="N10" t="n">
-        <v>-96</v>
+        <v>-11</v>
       </c>
       <c r="O10" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="P10" t="n">
-        <v>-35</v>
+        <v>-6</v>
       </c>
       <c r="Q10" t="n">
-        <v>-222</v>
+        <v>-102</v>
       </c>
       <c r="R10" t="n">
-        <v>2900</v>
+        <v>2213</v>
       </c>
       <c r="S10" t="n">
-        <v>442</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
@@ -2170,58 +2170,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-46</v>
+        <v>107</v>
       </c>
       <c r="C11" t="n">
-        <v>-17</v>
+        <v>136</v>
       </c>
       <c r="D11" t="n">
-        <v>-31</v>
+        <v>153</v>
       </c>
       <c r="E11" t="n">
-        <v>-20</v>
+        <v>189</v>
       </c>
       <c r="F11" t="n">
-        <v>-43</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
-        <v>-22</v>
+        <v>132</v>
       </c>
       <c r="H11" t="n">
-        <v>-9</v>
+        <v>107</v>
       </c>
       <c r="I11" t="n">
-        <v>-13</v>
+        <v>241</v>
       </c>
       <c r="J11" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="L11" t="n">
-        <v>21</v>
+        <v>348</v>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="N11" t="n">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="O11" t="n">
-        <v>-48</v>
+        <v>103</v>
       </c>
       <c r="P11" t="n">
-        <v>-9</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="n">
-        <v>-48</v>
+        <v>46</v>
       </c>
       <c r="R11" t="n">
-        <v>134</v>
+        <v>2685</v>
       </c>
       <c r="S11" t="n">
-        <v>170</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -2231,58 +2231,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C12" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D12" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E12" t="n">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F12" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G12" t="n">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H12" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="J12" t="n">
-        <v>-290</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>239</v>
+        <v>-27</v>
       </c>
       <c r="L12" t="n">
-        <v>59</v>
+        <v>-102</v>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>-19</v>
       </c>
       <c r="N12" t="n">
-        <v>-200</v>
+        <v>-11</v>
       </c>
       <c r="O12" t="n">
-        <v>-48</v>
+        <v>207</v>
       </c>
       <c r="P12" t="n">
-        <v>113</v>
+        <v>-6</v>
       </c>
       <c r="Q12" t="n">
-        <v>-290</v>
+        <v>-102</v>
       </c>
       <c r="R12" t="n">
-        <v>2012</v>
+        <v>2213</v>
       </c>
       <c r="S12" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -2292,58 +2292,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C13" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D13" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E13" t="n">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F13" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G13" t="n">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H13" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="J13" t="n">
-        <v>-290</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>239</v>
+        <v>-27</v>
       </c>
       <c r="L13" t="n">
-        <v>59</v>
+        <v>-102</v>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>-19</v>
       </c>
       <c r="N13" t="n">
-        <v>-200</v>
+        <v>-11</v>
       </c>
       <c r="O13" t="n">
-        <v>-48</v>
+        <v>207</v>
       </c>
       <c r="P13" t="n">
-        <v>113</v>
+        <v>-6</v>
       </c>
       <c r="Q13" t="n">
-        <v>-290</v>
+        <v>-102</v>
       </c>
       <c r="R13" t="n">
-        <v>2012</v>
+        <v>2213</v>
       </c>
       <c r="S13" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14">
@@ -2353,58 +2353,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="C14" t="n">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="E14" t="n">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G14" t="n">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="H14" t="n">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>-410</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>59</v>
+        <v>-83</v>
       </c>
       <c r="L14" t="n">
-        <v>-39</v>
+        <v>-164</v>
       </c>
       <c r="M14" t="n">
-        <v>-194</v>
+        <v>-17</v>
       </c>
       <c r="N14" t="n">
-        <v>-240</v>
+        <v>-9</v>
       </c>
       <c r="O14" t="n">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="P14" t="n">
-        <v>-21</v>
+        <v>60</v>
       </c>
       <c r="Q14" t="n">
-        <v>-410</v>
+        <v>-164</v>
       </c>
       <c r="R14" t="n">
-        <v>68</v>
+        <v>1653</v>
       </c>
       <c r="S14" t="n">
-        <v>165</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15">
@@ -2414,58 +2414,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="C15" t="n">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="E15" t="n">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="F15" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G15" t="n">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="H15" t="n">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>-410</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>59</v>
+        <v>-83</v>
       </c>
       <c r="L15" t="n">
-        <v>-39</v>
+        <v>-164</v>
       </c>
       <c r="M15" t="n">
-        <v>-194</v>
+        <v>-17</v>
       </c>
       <c r="N15" t="n">
-        <v>-240</v>
+        <v>-9</v>
       </c>
       <c r="O15" t="n">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="P15" t="n">
-        <v>-21</v>
+        <v>60</v>
       </c>
       <c r="Q15" t="n">
-        <v>-410</v>
+        <v>-164</v>
       </c>
       <c r="R15" t="n">
-        <v>68</v>
+        <v>1653</v>
       </c>
       <c r="S15" t="n">
-        <v>165</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C16" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D16" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E16" t="n">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F16" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G16" t="n">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H16" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="J16" t="n">
-        <v>-290</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>239</v>
+        <v>-27</v>
       </c>
       <c r="L16" t="n">
-        <v>59</v>
+        <v>-102</v>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>-19</v>
       </c>
       <c r="N16" t="n">
-        <v>-200</v>
+        <v>-11</v>
       </c>
       <c r="O16" t="n">
-        <v>-48</v>
+        <v>207</v>
       </c>
       <c r="P16" t="n">
-        <v>113</v>
+        <v>-6</v>
       </c>
       <c r="Q16" t="n">
-        <v>-290</v>
+        <v>-102</v>
       </c>
       <c r="R16" t="n">
-        <v>2012</v>
+        <v>2213</v>
       </c>
       <c r="S16" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17">
@@ -2536,58 +2536,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C17" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D17" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E17" t="n">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F17" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G17" t="n">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H17" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="J17" t="n">
-        <v>-290</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>239</v>
+        <v>-27</v>
       </c>
       <c r="L17" t="n">
-        <v>59</v>
+        <v>-102</v>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>-19</v>
       </c>
       <c r="N17" t="n">
-        <v>-200</v>
+        <v>-11</v>
       </c>
       <c r="O17" t="n">
-        <v>-48</v>
+        <v>207</v>
       </c>
       <c r="P17" t="n">
-        <v>113</v>
+        <v>-6</v>
       </c>
       <c r="Q17" t="n">
-        <v>-290</v>
+        <v>-102</v>
       </c>
       <c r="R17" t="n">
-        <v>2012</v>
+        <v>2213</v>
       </c>
       <c r="S17" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
